--- a/data/trans_dic/P6907S1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6907S1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15,81%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,5%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>0,0; 9,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>0,0; 24,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>0,0; 22,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0,0; 57,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>0,0; 9,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,0; 14,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 49,58</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,71%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>9,51; 22,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>2,16; 19,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>1,5; 12,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>0,55; 25,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>6,82; 22,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,0; 18,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>0,0; 19,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>4,11; 25,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>10,5; 20,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>1,38; 12,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>2,22; 10,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>4,38; 20,68</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,8%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>3,49; 12,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>2,36; 21,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>0,81; 8,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>8,17; 22,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>3,9; 17,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>0,0; 13,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>0,0; 5,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>4,65; 15,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>4,3; 11,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>2,37; 13,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,95; 5,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>7,68; 16,79</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11,23%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,06%</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>3,47; 14,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,17 +1154,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>1,14; 10,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>3,93; 16,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>4,07; 25,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,17 +1174,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>0,0; 9,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>3,36; 10,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>4,73; 14,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>0,76; 7,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>4,5; 10,87</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13,48%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,82%</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>2,0; 18,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>0,0; 29,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>7,09; 22,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 35,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1314,32 +1314,32 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>0,0; 18,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>5,31; 17,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>1,66; 16,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>0,0; 19,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0,0; 7,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>7,79; 17,01</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,64%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>6,61; 12,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>2,62; 10,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>1,74; 5,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>7,53; 15,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>7,03; 15,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>0,88; 7,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,81; 5,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>6,24; 11,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,72; 12,25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>2,42; 7,88</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,91; 4,95</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>7,43; 12,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6907S1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>12,6%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,67</t>
+          <t>0,0; 59,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,58</t>
+          <t>0,0; 52,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,39%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 25,22</t>
+          <t>0,54; 24,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 25,22</t>
+          <t>4,08; 24,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 20,68</t>
+          <t>4,15; 20,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>12,12%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 22,94</t>
+          <t>8,54; 23,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 15,62</t>
+          <t>4,81; 15,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 16,79</t>
+          <t>7,92; 17,37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 16,02</t>
+          <t>3,88; 16,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 10,31</t>
+          <t>2,3; 9,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,87</t>
+          <t>3,9; 10,22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,95%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 22,57</t>
+          <t>7,24; 22,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,31; 17,28</t>
+          <t>5,34; 17,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 17,01</t>
+          <t>7,87; 17,13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,47 +1356,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9,21%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10,83%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10,73%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>9,7%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>6,61; 12,37</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,62; 10,34</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,74; 5,74</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>7,53; 15,07</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 15,13</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>7,03; 15,42</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0,88; 7,51</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0,81; 5,23</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6,24; 11,87</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5,37; 11,36</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>7,72; 12,25</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>2,42; 7,88</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>1,91; 4,95</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>7,43; 12,08</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7,17; 12,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P6907S1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +725,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,6</t>
+          <t>0,0; 9,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +735,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,88</t>
+          <t>0,0; 30,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +745,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,17</t>
+          <t>0,0; 27,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -759,12 +760,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,43</t>
+          <t>0,0; 63,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,15</t>
+          <t>0,0; 9,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,23</t>
+          <t>0,0; 23,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,28</t>
+          <t>0,0; 52,04</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 22,83</t>
+          <t>9,13; 22,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 19,07</t>
+          <t>2,15; 16,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 12,74</t>
+          <t>1,24; 12,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 24,06</t>
+          <t>0,82; 28,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,82; 22,79</t>
+          <t>7,51; 22,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,67</t>
+          <t>0,0; 16,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,15</t>
+          <t>0,0; 17,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 24,99</t>
+          <t>4,2; 24,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,5; 20,62</t>
+          <t>10,62; 21,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 12,81</t>
+          <t>1,38; 12,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 10,42</t>
+          <t>2,1; 10,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 20,39</t>
+          <t>4,28; 19,27</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 12,28</t>
+          <t>3,57; 12,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 21,4</t>
+          <t>2,4; 19,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 8,05</t>
+          <t>0,83; 7,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,54; 23,56</t>
+          <t>7,74; 23,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 17,24</t>
+          <t>3,21; 17,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,52</t>
+          <t>0,0; 14,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,71</t>
+          <t>0,0; 5,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 15,86</t>
+          <t>4,55; 15,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 11,52</t>
+          <t>4,26; 11,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 13,64</t>
+          <t>2,34; 13,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,21</t>
+          <t>0,95; 5,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,92; 17,37</t>
+          <t>7,83; 17,53</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1145,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 14,32</t>
+          <t>3,52; 14,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,17 +1155,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 10,09</t>
+          <t>1,18; 9,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 16,2</t>
+          <t>3,31; 15,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 25,81</t>
+          <t>2,91; 25,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,17 +1175,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,62</t>
+          <t>0,0; 9,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 9,48</t>
+          <t>2,24; 8,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 14,89</t>
+          <t>4,83; 14,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,33</t>
+          <t>0,76; 7,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,22</t>
+          <t>3,7; 10,48</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 18,32</t>
+          <t>2,06; 18,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,15</t>
+          <t>0,0; 22,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,12 +1300,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 22,88</t>
+          <t>7,15; 21,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,66</t>
+          <t>0,0; 35,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1314,32 +1315,32 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,19</t>
+          <t>0,0; 17,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 17,41</t>
+          <t>4,68; 17,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 16,45</t>
+          <t>3,11; 17,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,69</t>
+          <t>0,0; 13,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,44</t>
+          <t>0,0; 7,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,87; 17,13</t>
+          <t>7,57; 18,07</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,61; 12,37</t>
+          <t>6,64; 12,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,62; 10,34</t>
+          <t>2,68; 9,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,74</t>
+          <t>1,95; 6,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,61; 15,13</t>
+          <t>7,88; 15,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,03; 15,42</t>
+          <t>7,33; 15,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,51</t>
+          <t>0,9; 7,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,23</t>
+          <t>0,87; 5,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,36</t>
+          <t>5,42; 11,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,72; 12,25</t>
+          <t>7,54; 12,22</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,88</t>
+          <t>2,34; 7,57</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,95</t>
+          <t>1,9; 4,76</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,17; 12,0</t>
+          <t>7,13; 12,05</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene algún otro problema</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2688</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1830</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2688</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4437</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 954</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5159</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2171</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5488</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1330</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1689</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9745</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6393</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1534</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6883</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11102</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21723</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2719</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4059</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11465</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2399</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5703</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>33188</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3666</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6458</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10240</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12993; 32386</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>831; 6536</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1013; 10020</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>482; 16719</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5955; 18082</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4961</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7979</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2096; 12372</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23523; 46993</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>945; 8389</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2685; 12944</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4663; 21005</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8561</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3794</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13867</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6022</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1902</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6872</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14583</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6003</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>20739</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4494; 15513</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1052; 8659</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>942; 8804</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7392; 22369</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2245; 12385</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6120</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4185</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3434; 11815</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8345; 23188</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2034; 12039</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1745; 10541</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13404; 29989</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8609</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3343</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9123</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8133</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12770</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4369</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>17256</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3917; 16196</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1974</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1083; 8855</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3593; 16764</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1078; 9320</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1859</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5316</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3465; 13793</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>7157; 21773</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1990</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1120; 10972</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>9746; 27628</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3767</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9249</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5441</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14690</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>946; 8338</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4708</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2090</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4818; 14680</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4996</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1764</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5475</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2595; 9972</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1859; 10539</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4093</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5618</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9305; 22215</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1070</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 894</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 770</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1070</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 916</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 633</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 633</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>43508</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>7827</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>12203</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>36776</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>23625</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2849</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>28837</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>67134</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>10676</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>17538</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>65613</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>31374; 57283</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3828; 13864</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>6822; 21090</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>26759; 51294</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>16145; 34298</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>901; 7739</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1873; 11770</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>19193; 41055</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>52223; 84638</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>5690; 18377</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>10744; 26956</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>49477; 83611</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>